--- a/Risk_Matrix_Template_ProjectManager_WLNK.xlsx
+++ b/Risk_Matrix_Template_ProjectManager_WLNK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D6DC83-725F-4E21-AE74-EB5686A9D227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA6B569-089B-4F64-A843-0AA0328BB7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{703EE073-7BD3-4044-80A6-D3A8DB485638}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Risk Matrix</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>Stay cold of funding</t>
+  </si>
+  <si>
+    <t>Distress relief system</t>
+  </si>
+  <si>
+    <t>Cedric</t>
   </si>
 </sst>
 </file>
@@ -531,7 +537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -552,20 +558,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -585,34 +582,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -631,6 +616,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -669,24 +672,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -705,22 +690,16 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -733,6 +712,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -752,6 +755,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -787,7 +796,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
+      <xdr:colOff>3278</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>218174</xdr:rowOff>
     </xdr:to>
@@ -837,7 +846,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>224367</xdr:colOff>
+      <xdr:colOff>126044</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
@@ -1181,13 +1190,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42BDFEA-C58C-48A6-983A-6A23DA352EAF}">
   <dimension ref="A1:BI141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="93" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="93" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="4" width="8.88671875" style="9"/>
+    <col min="5" max="5" width="10.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.3">
@@ -1443,14 +1454,14 @@
       <c r="BI4" s="8"/>
     </row>
     <row r="5" spans="1:61" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="64"/>
+      <c r="C5" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="64"/>
       <c r="E5" s="11" t="s">
         <v>31</v>
       </c>
@@ -1512,11 +1523,17 @@
       <c r="BI5" s="8"/>
     </row>
     <row r="6" spans="1:61" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="12"/>
+      <c r="A6" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="79"/>
+      <c r="C6" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="65"/>
+      <c r="E6" s="78">
+        <v>45204</v>
+      </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -1638,25 +1655,25 @@
       <c r="BI7" s="8"/>
     </row>
     <row r="8" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="57" t="s">
+      <c r="B8" s="67"/>
+      <c r="C8" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="59"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="52"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="13" t="s">
+      <c r="O8" s="12" t="s">
         <v>32</v>
       </c>
       <c r="P8" s="8"/>
@@ -1707,21 +1724,21 @@
       <c r="BI8" s="8"/>
     </row>
     <row r="9" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="62"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="55"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
-      <c r="O9" s="14" t="s">
+      <c r="O9" s="13" t="s">
         <v>33</v>
       </c>
       <c r="P9" s="8"/>
@@ -1772,31 +1789,31 @@
       <c r="BI9" s="8"/>
     </row>
     <row r="10" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="23" t="s">
+      <c r="A10" s="68"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="23" t="s">
+      <c r="D10" s="57"/>
+      <c r="E10" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="23" t="s">
+      <c r="F10" s="57"/>
+      <c r="G10" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="69" t="s">
+      <c r="H10" s="57"/>
+      <c r="I10" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="70"/>
-      <c r="K10" s="23" t="s">
+      <c r="J10" s="61"/>
+      <c r="K10" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="24"/>
+      <c r="L10" s="57"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="14" t="s">
+      <c r="O10" s="13" t="s">
         <v>35</v>
       </c>
       <c r="P10" s="8"/>
@@ -1847,21 +1864,21 @@
       <c r="BI10" s="8"/>
     </row>
     <row r="11" spans="1:61" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="59"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
-      <c r="O11" s="14" t="s">
+      <c r="O11" s="13" t="s">
         <v>36</v>
       </c>
       <c r="P11" s="8"/>
@@ -1912,32 +1929,32 @@
       <c r="BI11" s="8"/>
     </row>
     <row r="12" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="39" t="s">
+      <c r="D12" s="33"/>
+      <c r="E12" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="51" t="s">
+      <c r="F12" s="39"/>
+      <c r="G12" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="52"/>
-      <c r="I12" s="51" t="s">
+      <c r="H12" s="21"/>
+      <c r="I12" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="52"/>
-      <c r="K12" s="51" t="s">
+      <c r="J12" s="21"/>
+      <c r="K12" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="L12" s="52"/>
+      <c r="L12" s="21"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
@@ -1989,18 +2006,18 @@
       <c r="BI12" s="8"/>
     </row>
     <row r="13" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="74"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="54"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
@@ -2052,18 +2069,18 @@
       <c r="BI13" s="8"/>
     </row>
     <row r="14" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A14" s="74"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="54"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
@@ -2115,18 +2132,18 @@
       <c r="BI14" s="8"/>
     </row>
     <row r="15" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A15" s="74"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="54"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="23"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
@@ -2178,18 +2195,18 @@
       <c r="BI15" s="8"/>
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A16" s="74"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="56"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
@@ -2241,30 +2258,30 @@
       <c r="BI16" s="8"/>
     </row>
     <row r="17" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A17" s="74"/>
-      <c r="B17" s="76" t="s">
+      <c r="A17" s="73"/>
+      <c r="B17" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="39" t="s">
+      <c r="D17" s="33"/>
+      <c r="E17" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="39" t="s">
+      <c r="F17" s="39"/>
+      <c r="G17" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="40"/>
-      <c r="I17" s="51" t="s">
+      <c r="H17" s="39"/>
+      <c r="I17" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J17" s="52"/>
-      <c r="K17" s="51" t="s">
+      <c r="J17" s="21"/>
+      <c r="K17" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="L17" s="52"/>
+      <c r="L17" s="21"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
@@ -2316,18 +2333,18 @@
       <c r="BI17" s="8"/>
     </row>
     <row r="18" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A18" s="74"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="54"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
@@ -2379,18 +2396,18 @@
       <c r="BI18" s="8"/>
     </row>
     <row r="19" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A19" s="74"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="54"/>
+      <c r="A19" s="73"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="23"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
@@ -2442,18 +2459,18 @@
       <c r="BI19" s="8"/>
     </row>
     <row r="20" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A20" s="74"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="54"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="23"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
@@ -2505,18 +2522,18 @@
       <c r="BI20" s="8"/>
     </row>
     <row r="21" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A21" s="74"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="56"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="25"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
@@ -2568,30 +2585,30 @@
       <c r="BI21" s="8"/>
     </row>
     <row r="22" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A22" s="74"/>
-      <c r="B22" s="76" t="s">
+      <c r="A22" s="73"/>
+      <c r="B22" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="33" t="s">
+      <c r="D22" s="15"/>
+      <c r="E22" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="39" t="s">
+      <c r="F22" s="27"/>
+      <c r="G22" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="40"/>
-      <c r="I22" s="45" t="s">
+      <c r="H22" s="39"/>
+      <c r="I22" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="J22" s="46"/>
-      <c r="K22" s="51" t="s">
+      <c r="J22" s="45"/>
+      <c r="K22" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="L22" s="52"/>
+      <c r="L22" s="21"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
@@ -2643,18 +2660,18 @@
       <c r="BI22" s="8"/>
     </row>
     <row r="23" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A23" s="74"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="54"/>
+      <c r="A23" s="73"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="23"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
@@ -2706,18 +2723,18 @@
       <c r="BI23" s="8"/>
     </row>
     <row r="24" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A24" s="74"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="54"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="23"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
@@ -2769,18 +2786,18 @@
       <c r="BI24" s="8"/>
     </row>
     <row r="25" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A25" s="74"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="54"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23"/>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
@@ -2832,18 +2849,18 @@
       <c r="BI25" s="8"/>
     </row>
     <row r="26" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A26" s="74"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="56"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="25"/>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
@@ -2895,30 +2912,30 @@
       <c r="BI26" s="8"/>
     </row>
     <row r="27" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A27" s="74"/>
-      <c r="B27" s="76" t="s">
+      <c r="A27" s="73"/>
+      <c r="B27" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="17" t="s">
+      <c r="D27" s="15"/>
+      <c r="E27" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="63" t="s">
+      <c r="F27" s="15"/>
+      <c r="G27" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="64"/>
-      <c r="I27" s="63" t="s">
+      <c r="H27" s="33"/>
+      <c r="I27" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="64"/>
-      <c r="K27" s="39" t="s">
+      <c r="J27" s="33"/>
+      <c r="K27" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="L27" s="40"/>
+      <c r="L27" s="39"/>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
@@ -2970,18 +2987,18 @@
       <c r="BI27" s="8"/>
     </row>
     <row r="28" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A28" s="74"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="42"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="41"/>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
@@ -3033,18 +3050,18 @@
       <c r="BI28" s="8"/>
     </row>
     <row r="29" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A29" s="74"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="42"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="41"/>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
@@ -3096,18 +3113,18 @@
       <c r="BI29" s="8"/>
     </row>
     <row r="30" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A30" s="74"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="42"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="41"/>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
@@ -3159,18 +3176,18 @@
       <c r="BI30" s="8"/>
     </row>
     <row r="31" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A31" s="74"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="44"/>
+      <c r="A31" s="73"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="43"/>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
@@ -3222,30 +3239,30 @@
       <c r="BI31" s="8"/>
     </row>
     <row r="32" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A32" s="74"/>
-      <c r="B32" s="76" t="s">
+      <c r="A32" s="73"/>
+      <c r="B32" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="17" t="s">
+      <c r="D32" s="15"/>
+      <c r="E32" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="17" t="s">
+      <c r="F32" s="15"/>
+      <c r="G32" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H32" s="18"/>
-      <c r="I32" s="17" t="s">
+      <c r="H32" s="15"/>
+      <c r="I32" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="J32" s="18"/>
-      <c r="K32" s="33" t="s">
+      <c r="J32" s="15"/>
+      <c r="K32" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="L32" s="34"/>
+      <c r="L32" s="27"/>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
@@ -3297,18 +3314,18 @@
       <c r="BI32" s="8"/>
     </row>
     <row r="33" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A33" s="74"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="36"/>
+      <c r="A33" s="73"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="29"/>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
@@ -3360,18 +3377,18 @@
       <c r="BI33" s="8"/>
     </row>
     <row r="34" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A34" s="74"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="36"/>
+      <c r="A34" s="73"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="29"/>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
@@ -3423,18 +3440,18 @@
       <c r="BI34" s="8"/>
     </row>
     <row r="35" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A35" s="74"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="36"/>
+      <c r="A35" s="73"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="29"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
@@ -3486,18 +3503,18 @@
       <c r="BI35" s="8"/>
     </row>
     <row r="36" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A36" s="75"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="38"/>
+      <c r="A36" s="74"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="31"/>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
@@ -8999,32 +9016,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C22:D26"/>
-    <mergeCell ref="C32:D36"/>
-    <mergeCell ref="K17:L21"/>
-    <mergeCell ref="G32:H36"/>
-    <mergeCell ref="I32:J36"/>
-    <mergeCell ref="K32:L36"/>
-    <mergeCell ref="E27:F31"/>
-    <mergeCell ref="G27:H31"/>
-    <mergeCell ref="I27:J31"/>
-    <mergeCell ref="K27:L31"/>
-    <mergeCell ref="G22:H26"/>
-    <mergeCell ref="I22:J26"/>
-    <mergeCell ref="K22:L26"/>
-    <mergeCell ref="C8:L9"/>
-    <mergeCell ref="E17:F21"/>
-    <mergeCell ref="G17:H21"/>
-    <mergeCell ref="I17:J21"/>
-    <mergeCell ref="E12:F16"/>
-    <mergeCell ref="G12:H16"/>
-    <mergeCell ref="I12:J16"/>
-    <mergeCell ref="K12:L16"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="K10:L11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="C17:D21"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C5:D5"/>
@@ -9041,6 +9032,32 @@
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="C27:D31"/>
     <mergeCell ref="C12:D16"/>
+    <mergeCell ref="C8:L9"/>
+    <mergeCell ref="E17:F21"/>
+    <mergeCell ref="G17:H21"/>
+    <mergeCell ref="I17:J21"/>
+    <mergeCell ref="E12:F16"/>
+    <mergeCell ref="G12:H16"/>
+    <mergeCell ref="I12:J16"/>
+    <mergeCell ref="K12:L16"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="C17:D21"/>
+    <mergeCell ref="C22:D26"/>
+    <mergeCell ref="C32:D36"/>
+    <mergeCell ref="K17:L21"/>
+    <mergeCell ref="G32:H36"/>
+    <mergeCell ref="I32:J36"/>
+    <mergeCell ref="K32:L36"/>
+    <mergeCell ref="E27:F31"/>
+    <mergeCell ref="G27:H31"/>
+    <mergeCell ref="I27:J31"/>
+    <mergeCell ref="K27:L31"/>
+    <mergeCell ref="G22:H26"/>
+    <mergeCell ref="I22:J26"/>
+    <mergeCell ref="K22:L26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O9" r:id="rId1" xr:uid="{A1BCD871-5934-45D7-AC69-A6C259633DF0}"/>
